--- a/Data/Posts.xlsx
+++ b/Data/Posts.xlsx
@@ -1971,7 +1971,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2002,6 +2002,12 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -2421,7 +2427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2572,13 +2578,16 @@
     <xf borderId="9" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2590,7 +2599,7 @@
     <xf borderId="15" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="3" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -2599,7 +2608,7 @@
     <xf borderId="8" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="2" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2608,7 +2617,7 @@
     <xf borderId="19" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="2" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2623,7 +2632,7 @@
     <xf borderId="21" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="3" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2919,9 +2928,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="3" width="43.0"/>
-    <col customWidth="1" min="4" max="12" width="25.86"/>
+    <col customWidth="1" min="1" max="1" width="12.57"/>
+    <col customWidth="1" min="2" max="2" width="40.71"/>
+    <col customWidth="1" min="3" max="3" width="21.43"/>
+    <col customWidth="1" min="4" max="5" width="18.0"/>
+    <col customWidth="1" min="6" max="6" width="17.57"/>
+    <col customWidth="1" min="7" max="7" width="18.0"/>
+    <col customWidth="1" min="8" max="8" width="18.43"/>
+    <col customWidth="1" min="9" max="9" width="19.86"/>
+    <col customWidth="1" min="10" max="10" width="18.71"/>
+    <col customWidth="1" min="11" max="11" width="19.29"/>
+    <col customWidth="1" min="12" max="12" width="19.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5629,7 +5646,7 @@
       <c r="B72" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="50" t="s">
         <v>153</v>
       </c>
       <c r="D72" s="23">
@@ -6614,10 +6631,10 @@
       <c r="A98" s="38">
         <v>97.0</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B98" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="52" t="s">
         <v>203</v>
       </c>
       <c r="D98" s="29">
@@ -6652,10 +6669,10 @@
       <c r="A99" s="44">
         <v>98.0</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="53" t="s">
         <v>205</v>
       </c>
       <c r="D99" s="23">
@@ -6690,10 +6707,10 @@
       <c r="A100" s="38">
         <v>99.0</v>
       </c>
-      <c r="B100" s="51" t="s">
+      <c r="B100" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="52" t="s">
         <v>207</v>
       </c>
       <c r="D100" s="29">
@@ -6728,10 +6745,10 @@
       <c r="A101" s="44">
         <v>100.0</v>
       </c>
-      <c r="B101" s="52" t="s">
+      <c r="B101" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="53" t="s">
         <v>209</v>
       </c>
       <c r="D101" s="23">
@@ -6766,10 +6783,10 @@
       <c r="A102" s="38">
         <v>101.0</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="52" t="s">
         <v>211</v>
       </c>
       <c r="D102" s="29">
@@ -6804,10 +6821,10 @@
       <c r="A103" s="44">
         <v>102.0</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="53" t="s">
         <v>213</v>
       </c>
       <c r="D103" s="23">
@@ -6842,10 +6859,10 @@
       <c r="A104" s="38">
         <v>103.0</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="52" t="s">
         <v>215</v>
       </c>
       <c r="D104" s="29">
@@ -6880,10 +6897,10 @@
       <c r="A105" s="44">
         <v>104.0</v>
       </c>
-      <c r="B105" s="52" t="s">
+      <c r="B105" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="53" t="s">
         <v>217</v>
       </c>
       <c r="D105" s="23">
@@ -6918,10 +6935,10 @@
       <c r="A106" s="38">
         <v>105.0</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="52" t="s">
         <v>219</v>
       </c>
       <c r="D106" s="29">
@@ -6956,10 +6973,10 @@
       <c r="A107" s="44">
         <v>106.0</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="53" t="s">
         <v>221</v>
       </c>
       <c r="D107" s="23">
@@ -6994,10 +7011,10 @@
       <c r="A108" s="38">
         <v>107.0</v>
       </c>
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="52" t="s">
         <v>223</v>
       </c>
       <c r="D108" s="29">
@@ -7032,10 +7049,10 @@
       <c r="A109" s="44">
         <v>108.0</v>
       </c>
-      <c r="B109" s="54" t="s">
+      <c r="B109" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="52" t="s">
+      <c r="C109" s="53" t="s">
         <v>225</v>
       </c>
       <c r="D109" s="23">
@@ -7070,10 +7087,10 @@
       <c r="A110" s="38">
         <v>109.0</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="52" t="s">
         <v>227</v>
       </c>
       <c r="D110" s="29">
@@ -7108,10 +7125,10 @@
       <c r="A111" s="44">
         <v>110.0</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="52" t="s">
+      <c r="C111" s="53" t="s">
         <v>229</v>
       </c>
       <c r="D111" s="23">
@@ -7146,10 +7163,10 @@
       <c r="A112" s="38">
         <v>111.0</v>
       </c>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C112" s="51" t="s">
+      <c r="C112" s="52" t="s">
         <v>231</v>
       </c>
       <c r="D112" s="29">
@@ -7184,10 +7201,10 @@
       <c r="A113" s="44">
         <v>112.0</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C113" s="52" t="s">
+      <c r="C113" s="53" t="s">
         <v>233</v>
       </c>
       <c r="D113" s="23">
@@ -7222,10 +7239,10 @@
       <c r="A114" s="38">
         <v>113.0</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C114" s="51" t="s">
+      <c r="C114" s="52" t="s">
         <v>235</v>
       </c>
       <c r="D114" s="29">
@@ -7260,10 +7277,10 @@
       <c r="A115" s="44">
         <v>114.0</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C115" s="53" t="s">
         <v>237</v>
       </c>
       <c r="D115" s="23">
@@ -7298,10 +7315,10 @@
       <c r="A116" s="38">
         <v>115.0</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D116" s="29">
@@ -7336,10 +7353,10 @@
       <c r="A117" s="44">
         <v>116.0</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="52" t="s">
+      <c r="C117" s="53" t="s">
         <v>241</v>
       </c>
       <c r="D117" s="23">
@@ -7374,10 +7391,10 @@
       <c r="A118" s="38">
         <v>117.0</v>
       </c>
-      <c r="B118" s="53" t="s">
+      <c r="B118" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="52" t="s">
         <v>243</v>
       </c>
       <c r="D118" s="29">
@@ -7412,10 +7429,10 @@
       <c r="A119" s="44">
         <v>118.0</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C119" s="52" t="s">
+      <c r="C119" s="53" t="s">
         <v>245</v>
       </c>
       <c r="D119" s="23">
@@ -7450,10 +7467,10 @@
       <c r="A120" s="38">
         <v>119.0</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="52" t="s">
         <v>247</v>
       </c>
       <c r="D120" s="29">
@@ -7488,10 +7505,10 @@
       <c r="A121" s="44">
         <v>120.0</v>
       </c>
-      <c r="B121" s="54" t="s">
+      <c r="B121" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="C121" s="52" t="s">
+      <c r="C121" s="53" t="s">
         <v>249</v>
       </c>
       <c r="D121" s="23">
@@ -7526,10 +7543,10 @@
       <c r="A122" s="38">
         <v>121.0</v>
       </c>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="52" t="s">
         <v>251</v>
       </c>
       <c r="D122" s="29">
@@ -7564,10 +7581,10 @@
       <c r="A123" s="44">
         <v>122.0</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="52" t="s">
+      <c r="C123" s="53" t="s">
         <v>252</v>
       </c>
       <c r="D123" s="23">
@@ -7602,10 +7619,10 @@
       <c r="A124" s="38">
         <v>123.0</v>
       </c>
-      <c r="B124" s="53" t="s">
+      <c r="B124" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="52" t="s">
         <v>254</v>
       </c>
       <c r="D124" s="29">
@@ -7640,10 +7657,10 @@
       <c r="A125" s="44">
         <v>124.0</v>
       </c>
-      <c r="B125" s="52" t="s">
+      <c r="B125" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="C125" s="52" t="s">
+      <c r="C125" s="53" t="s">
         <v>256</v>
       </c>
       <c r="D125" s="23">
@@ -7678,10 +7695,10 @@
       <c r="A126" s="38">
         <v>125.0</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="52" t="s">
         <v>258</v>
       </c>
       <c r="D126" s="29">
@@ -7716,10 +7733,10 @@
       <c r="A127" s="44">
         <v>126.0</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C127" s="52" t="s">
+      <c r="C127" s="53" t="s">
         <v>260</v>
       </c>
       <c r="D127" s="23">
@@ -7754,10 +7771,10 @@
       <c r="A128" s="38">
         <v>127.0</v>
       </c>
-      <c r="B128" s="55" t="s">
+      <c r="B128" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="57" t="s">
         <v>262</v>
       </c>
       <c r="D128" s="41">
@@ -7784,7 +7801,7 @@
       <c r="K128" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="L128" s="57">
+      <c r="L128" s="58">
         <v>45322.0</v>
       </c>
     </row>
@@ -7792,10 +7809,10 @@
       <c r="A129" s="44">
         <v>128.0</v>
       </c>
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="C129" s="60" t="s">
         <v>264</v>
       </c>
       <c r="D129" s="47">
@@ -7830,10 +7847,10 @@
       <c r="A130" s="38">
         <v>129.0</v>
       </c>
-      <c r="B130" s="52" t="s">
+      <c r="B130" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C130" s="52" t="s">
+      <c r="C130" s="53" t="s">
         <v>266</v>
       </c>
       <c r="D130" s="23">
@@ -8883,7 +8900,7 @@
       <c r="J157" s="23">
         <v>7.0</v>
       </c>
-      <c r="K157" s="60" t="s">
+      <c r="K157" s="61" t="s">
         <v>201</v>
       </c>
       <c r="L157" s="25">
@@ -9844,75 +9861,75 @@
       <c r="A183" s="44">
         <v>182.0</v>
       </c>
-      <c r="B183" s="61" t="s">
+      <c r="B183" s="62" t="s">
         <v>371</v>
       </c>
-      <c r="C183" s="62" t="s">
+      <c r="C183" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="D183" s="63">
+      <c r="D183" s="64">
         <v>148.0</v>
       </c>
-      <c r="E183" s="63">
+      <c r="E183" s="64">
         <v>35.0</v>
       </c>
-      <c r="F183" s="63">
+      <c r="F183" s="64">
         <v>3.0</v>
       </c>
-      <c r="G183" s="63">
-        <v>0.0</v>
-      </c>
-      <c r="H183" s="63">
-        <v>0.0</v>
-      </c>
-      <c r="I183" s="63">
+      <c r="G183" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="H183" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="I183" s="64">
         <v>2.0</v>
       </c>
-      <c r="J183" s="63">
-        <v>0.0</v>
-      </c>
-      <c r="K183" s="64" t="s">
+      <c r="J183" s="64">
+        <v>0.0</v>
+      </c>
+      <c r="K183" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="L183" s="65">
+      <c r="L183" s="66">
         <v>45379.0</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="66">
+      <c r="A184" s="67">
         <v>183.0</v>
       </c>
-      <c r="B184" s="67" t="s">
+      <c r="B184" s="68" t="s">
         <v>373</v>
       </c>
-      <c r="C184" s="67" t="s">
+      <c r="C184" s="68" t="s">
         <v>374</v>
       </c>
-      <c r="D184" s="68">
+      <c r="D184" s="69">
         <v>215.0</v>
       </c>
-      <c r="E184" s="68">
+      <c r="E184" s="69">
         <v>46.0</v>
       </c>
-      <c r="F184" s="68">
+      <c r="F184" s="69">
         <v>5.0</v>
       </c>
-      <c r="G184" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="H184" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="I184" s="68">
-        <v>1.0</v>
-      </c>
-      <c r="J184" s="68">
-        <v>0.0</v>
-      </c>
-      <c r="K184" s="69" t="s">
+      <c r="G184" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="H184" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="I184" s="69">
+        <v>1.0</v>
+      </c>
+      <c r="J184" s="69">
+        <v>0.0</v>
+      </c>
+      <c r="K184" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="L184" s="70">
+      <c r="L184" s="71">
         <v>45381.0</v>
       </c>
     </row>

--- a/Data/Posts.xlsx
+++ b/Data/Posts.xlsx
@@ -74,13 +74,13 @@
     <t>https://www.facebook.com/watch/?v=1068829281022985&amp;ref=sharing</t>
   </si>
   <si>
-    <t>It's Time To be a legend</t>
+    <t>It's Time To be a legend (Football)</t>
   </si>
   <si>
     <t>https://www.facebook.com/djezzy/posts/392564993435969:392564993435969?ref=embed_post</t>
   </si>
   <si>
-    <t>Djezzy vous souhaite Yennayer amervuh!  ⴰⵙⵙⴻⴳⴰⵙ ⴰⵎⴻⴳⴰⵣ 2974
+    <t>Djezzy vous souhaite Yennayer amervuh
  ! جازي تقدم لكم أحرّ التهاني بمناسبة السنة الأمازيغية الجديدة
 #DJEZZY #Yennayer_2974</t>
   </si>
